--- a/Data/DatosExcel.xlsx
+++ b/Data/DatosExcel.xlsx
@@ -1,60 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SQA\Desktop\SQA\TemplatePOM\TemplatePOM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\TST2022_RETO_PRACTICO_AUTOMATIZADOR_QA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D216E442-5618-4A6B-9D29-1F042A227262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35EA5E3-6335-4D6D-9F5E-1F10ECBAB19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D6E497CA-48BA-47A3-B119-AA4EA4B9FF8C}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{D6E497CA-48BA-47A3-B119-AA4EA4B9FF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Url" sheetId="2" r:id="rId1"/>
     <sheet name="DatosLogin" sheetId="1" r:id="rId2"/>
+    <sheet name="DatosFormulario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Url</t>
   </si>
   <si>
-    <t>https://demo.guru99.com/test/newtours/index.php</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
     <t>Clave</t>
   </si>
   <si>
-    <t>solv</t>
-  </si>
-  <si>
-    <t>Beta.123</t>
+    <t>10df2f32286b7120MS00LTE0MjMxOQ==30e0c83e6c29f1c3</t>
+  </si>
+  <si>
+    <t>https://tasks.evalartapp.com/automatization/</t>
+  </si>
+  <si>
+    <t>numero1</t>
+  </si>
+  <si>
+    <t>caracteres1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>numero2</t>
+  </si>
+  <si>
+    <t>numero3</t>
+  </si>
+  <si>
+    <t>numero4</t>
+  </si>
+  <si>
+    <t>numero5</t>
+  </si>
+  <si>
+    <t>numero6</t>
+  </si>
+  <si>
+    <t>numero7</t>
+  </si>
+  <si>
+    <t>numero8</t>
+  </si>
+  <si>
+    <t>numero9</t>
+  </si>
+  <si>
+    <t>numero10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>BBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBB</t>
+  </si>
+  <si>
+    <t>jjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjj</t>
+  </si>
+  <si>
+    <t>HHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHHH</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>UUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>QQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQQ</t>
+  </si>
+  <si>
+    <t>FFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>caracteres10</t>
+  </si>
+  <si>
+    <t>caracteres9</t>
+  </si>
+  <si>
+    <t>caracteres8</t>
+  </si>
+  <si>
+    <t>caracteres7</t>
+  </si>
+  <si>
+    <t>caracteres6</t>
+  </si>
+  <si>
+    <t>caracteres5</t>
+  </si>
+  <si>
+    <t>caracteres4</t>
+  </si>
+  <si>
+    <t>caracteres3</t>
+  </si>
+  <si>
+    <t>caracteres2</t>
   </si>
 </sst>
 </file>
@@ -113,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -124,6 +222,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -442,29 +541,29 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="48.703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.41015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E1296C68-AAE4-4EA4-BFA1-B6B5C5D9A615}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://demo.guru99.com/test/newtours/index.php" xr:uid="{E1296C68-AAE4-4EA4-BFA1-B6B5C5D9A615}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -474,26 +573,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7F1C6B-B8DA-46D9-A6C5-BCC300A6C790}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="48.5859375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>913241</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930BFDF9-DE75-4855-AB2C-61EDCD1CC6B6}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="20" width="10.8203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
